--- a/www/IndicatorsPerCountry/Paraguay_AverageYearsofEducation_TerritorialRef_1946_2012_CCode_600.xlsx
+++ b/www/IndicatorsPerCountry/Paraguay_AverageYearsofEducation_TerritorialRef_1946_2012_CCode_600.xlsx
@@ -111,13 +111,13 @@
     <t>Leeuwen, Bas van and Jieli van Leeuwen-Li (2015). Average Years of Education. http://hdl.handle.net/10622/KCBMKI, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KCBMKI.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KCBMKI.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KCBMKI.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KCBMKI.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KCBMKI.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KCBMKI.bib</t>
   </si>
 </sst>
 </file>
